--- a/src/main/webapp/uploadFiles/file/Fund_Related_Party.xlsx
+++ b/src/main/webapp/uploadFiles/file/Fund_Related_Party.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
-    <sheet name="DETAIL" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DETAIL!$A$2:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$O$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,102 +27,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+  <si>
+    <t>PARTY_SHORT_NAME_2</t>
+  </si>
+  <si>
+    <t>PARTY_SHORT_NAME_3</t>
+  </si>
+  <si>
+    <t>BOND_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTY_FULL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTY_SHORT_NAME_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATIONSHIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与本基金的关系</t>
+  </si>
   <si>
     <t>基金ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY_FULL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联方名称</t>
-  </si>
-  <si>
-    <t>与本基金的关系</t>
-  </si>
-  <si>
-    <t>RELATIONSHIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY_SHORT_NAME_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; Text &gt;</t>
+  </si>
+  <si>
+    <t>关联方全称</t>
   </si>
   <si>
     <t>关联方简称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联方简称2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联方简称3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARTY_SHORT_NAME_2</t>
-  </si>
-  <si>
-    <t>PARTY_SHORT_NAME_3</t>
-  </si>
-  <si>
-    <t>FUND_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOCK_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOND_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>债券代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联方ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F163503-01</t>
-  </si>
-  <si>
-    <t>天治基金管理有限公司</t>
-  </si>
-  <si>
-    <t>P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金管理人、基金销售机构</t>
+  </si>
+  <si>
+    <t>关联方简称2
+（如有）</t>
+  </si>
+  <si>
+    <t>关联方简称3
+（如有）</t>
+  </si>
+  <si>
+    <t>关联方ID
+（格式：P001，同一基金id下顺序编码）</t>
+  </si>
+  <si>
+    <r>
+      <t>股票代码
+（关联方的股票代码如有多个代码请用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>基金代码
+（关联方对应的基金代码，如有多个代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>债券代码
+（关联方发行的债券代码&lt;含同业存单&gt;如有多个代码请用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔开）</t>
+    </r>
+  </si>
+  <si>
+    <t>报告输出排序</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; Number &gt;</t>
+  </si>
+  <si>
+    <t>&lt;Text&gt;</t>
+  </si>
+  <si>
+    <t>基金简称
+（如：富国天盛）</t>
+  </si>
+  <si>
+    <t>RELATED_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他关联交易关联方（Y/N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +223,28 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,18 +278,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,6 +342,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -458,109 +623,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
+      <c r="L2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J3"/>
+  <autoFilter ref="A3:O3">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="富国上证综指ETF联接"/>
+        <filter val="华安黄金ETF联接"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>